--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Tcarib gmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Tcarib gtmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$L$670</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$670</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5707,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L670"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="B653" sqref="B653"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="G488" sqref="G488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27160,7 +27160,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L670"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$670</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$670</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="1754">
   <si>
     <t>Type</t>
   </si>
@@ -4654,9 +4654,6 @@
     <t xml:space="preserve"> 10,481 Sq. Ft.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4,731 Sq. Ft.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7,707 Sq. Ft.</t>
   </si>
   <si>
@@ -5297,6 +5294,12 @@
   </si>
   <si>
     <t>Commercial</t>
+  </si>
+  <si>
+    <t>4,731 Sq. Ft.</t>
+  </si>
+  <si>
+    <t>35,937 Sq. Ft.</t>
   </si>
 </sst>
 </file>
@@ -5358,7 +5361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5366,6 +5369,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5707,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L670"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="G488" sqref="G488"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7935,7 +7939,7 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
@@ -7947,13 +7951,13 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I70" t="s">
         <v>1740</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>1741</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1742</v>
       </c>
       <c r="K70" t="s">
         <v>212</v>
@@ -7996,7 +8000,7 @@
     </row>
     <row r="72" spans="3:12" ht="15">
       <c r="C72" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D72" t="s">
         <v>107</v>
@@ -8028,7 +8032,7 @@
     </row>
     <row r="73" spans="3:12" ht="15">
       <c r="C73" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D73" t="s">
         <v>109</v>
@@ -8060,7 +8064,7 @@
     </row>
     <row r="74" spans="3:12" ht="15">
       <c r="C74" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D74" t="s">
         <v>110</v>
@@ -8092,7 +8096,7 @@
     </row>
     <row r="75" spans="3:12" ht="15">
       <c r="C75" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D75" t="s">
         <v>111</v>
@@ -8124,7 +8128,7 @@
     </row>
     <row r="76" spans="3:12" ht="15">
       <c r="C76" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D76" t="s">
         <v>112</v>
@@ -8156,7 +8160,7 @@
     </row>
     <row r="77" spans="3:12" ht="15">
       <c r="C77" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D77" t="s">
         <v>113</v>
@@ -8188,7 +8192,7 @@
     </row>
     <row r="78" spans="3:12" ht="15">
       <c r="C78" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D78" t="s">
         <v>115</v>
@@ -8220,7 +8224,7 @@
     </row>
     <row r="79" spans="3:12" ht="15">
       <c r="C79" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D79" t="s">
         <v>116</v>
@@ -8252,7 +8256,7 @@
     </row>
     <row r="80" spans="3:12" ht="15">
       <c r="C80" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D80" t="s">
         <v>117</v>
@@ -8284,7 +8288,7 @@
     </row>
     <row r="81" spans="3:12" ht="15">
       <c r="C81" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D81" t="s">
         <v>118</v>
@@ -8316,7 +8320,7 @@
     </row>
     <row r="82" spans="3:12" ht="15">
       <c r="C82" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D82" t="s">
         <v>119</v>
@@ -8348,7 +8352,7 @@
     </row>
     <row r="83" spans="3:12" ht="15">
       <c r="C83" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D83" t="s">
         <v>120</v>
@@ -8380,7 +8384,7 @@
     </row>
     <row r="84" spans="3:12" ht="15">
       <c r="C84" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D84" t="s">
         <v>121</v>
@@ -8412,7 +8416,7 @@
     </row>
     <row r="85" spans="3:12" ht="15">
       <c r="C85" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D85" t="s">
         <v>122</v>
@@ -8444,7 +8448,7 @@
     </row>
     <row r="86" spans="3:12" ht="15">
       <c r="C86" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D86" t="s">
         <v>123</v>
@@ -8476,7 +8480,7 @@
     </row>
     <row r="87" spans="3:12" ht="15">
       <c r="C87" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D87" t="s">
         <v>125</v>
@@ -8508,7 +8512,7 @@
     </row>
     <row r="88" spans="3:12" ht="15">
       <c r="C88" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D88" t="s">
         <v>126</v>
@@ -8540,7 +8544,7 @@
     </row>
     <row r="89" spans="3:12" ht="15">
       <c r="C89" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D89" t="s">
         <v>127</v>
@@ -8572,7 +8576,7 @@
     </row>
     <row r="90" spans="3:12" ht="15">
       <c r="C90" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D90" t="s">
         <v>128</v>
@@ -8604,7 +8608,7 @@
     </row>
     <row r="91" spans="3:12" ht="15">
       <c r="C91" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D91" t="s">
         <v>129</v>
@@ -8636,7 +8640,7 @@
     </row>
     <row r="92" spans="3:12" ht="15">
       <c r="C92" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D92" t="s">
         <v>131</v>
@@ -8668,7 +8672,7 @@
     </row>
     <row r="93" spans="3:12" ht="15">
       <c r="C93" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D93" t="s">
         <v>132</v>
@@ -8700,7 +8704,7 @@
     </row>
     <row r="94" spans="3:12" ht="15">
       <c r="C94" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -8732,7 +8736,7 @@
     </row>
     <row r="95" spans="3:12" ht="15">
       <c r="C95" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
@@ -8764,7 +8768,7 @@
     </row>
     <row r="96" spans="3:12" ht="15">
       <c r="C96" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D96" t="s">
         <v>1110</v>
@@ -8796,7 +8800,7 @@
     </row>
     <row r="97" spans="3:12" ht="15">
       <c r="C97" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D97" t="s">
         <v>135</v>
@@ -8828,7 +8832,7 @@
     </row>
     <row r="98" spans="3:12" ht="15">
       <c r="C98" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D98" t="s">
         <v>136</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="99" spans="3:12" ht="15">
       <c r="C99" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D99" t="s">
         <v>1124</v>
@@ -8892,7 +8896,7 @@
     </row>
     <row r="100" spans="3:12" ht="15">
       <c r="C100" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D100" t="s">
         <v>137</v>
@@ -8924,7 +8928,7 @@
     </row>
     <row r="101" spans="3:12" ht="15">
       <c r="C101" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D101" t="s">
         <v>138</v>
@@ -8956,7 +8960,7 @@
     </row>
     <row r="102" spans="3:12" ht="15">
       <c r="C102" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D102" t="s">
         <v>138</v>
@@ -8988,7 +8992,7 @@
     </row>
     <row r="103" spans="3:12" ht="15">
       <c r="C103" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D103" t="s">
         <v>139</v>
@@ -9020,7 +9024,7 @@
     </row>
     <row r="104" spans="3:12" ht="15">
       <c r="C104" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D104" t="s">
         <v>141</v>
@@ -9052,7 +9056,7 @@
     </row>
     <row r="105" spans="3:12" ht="15">
       <c r="C105" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D105" t="s">
         <v>142</v>
@@ -9084,7 +9088,7 @@
     </row>
     <row r="106" spans="3:12" ht="15">
       <c r="C106" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D106" t="s">
         <v>143</v>
@@ -9116,7 +9120,7 @@
     </row>
     <row r="107" spans="3:12" ht="15">
       <c r="C107" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D107" t="s">
         <v>144</v>
@@ -9148,7 +9152,7 @@
     </row>
     <row r="108" spans="3:12" ht="15">
       <c r="C108" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D108" t="s">
         <v>145</v>
@@ -9180,7 +9184,7 @@
     </row>
     <row r="109" spans="3:12" ht="15">
       <c r="C109" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D109" t="s">
         <v>146</v>
@@ -9212,7 +9216,7 @@
     </row>
     <row r="110" spans="3:12" ht="15">
       <c r="C110" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D110" t="s">
         <v>147</v>
@@ -9244,7 +9248,7 @@
     </row>
     <row r="111" spans="3:12" ht="15">
       <c r="C111" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D111" t="s">
         <v>149</v>
@@ -9276,7 +9280,7 @@
     </row>
     <row r="112" spans="3:12" ht="15">
       <c r="C112" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D112" t="s">
         <v>150</v>
@@ -9308,7 +9312,7 @@
     </row>
     <row r="113" spans="3:12" ht="15">
       <c r="C113" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D113" t="s">
         <v>151</v>
@@ -9340,7 +9344,7 @@
     </row>
     <row r="114" spans="3:12" ht="15">
       <c r="C114" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D114" t="s">
         <v>152</v>
@@ -9372,7 +9376,7 @@
     </row>
     <row r="115" spans="3:12" ht="15">
       <c r="C115" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D115" t="s">
         <v>153</v>
@@ -9404,7 +9408,7 @@
     </row>
     <row r="116" spans="3:12" ht="15">
       <c r="C116" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D116" t="s">
         <v>154</v>
@@ -9436,7 +9440,7 @@
     </row>
     <row r="117" spans="3:12" ht="15">
       <c r="C117" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D117" t="s">
         <v>155</v>
@@ -9468,7 +9472,7 @@
     </row>
     <row r="118" spans="3:12" ht="15">
       <c r="C118" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D118" t="s">
         <v>157</v>
@@ -9500,7 +9504,7 @@
     </row>
     <row r="119" spans="3:12" ht="15">
       <c r="C119" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D119" t="s">
         <v>157</v>
@@ -9532,7 +9536,7 @@
     </row>
     <row r="120" spans="3:12" ht="15">
       <c r="C120" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D120" t="s">
         <v>158</v>
@@ -9564,7 +9568,7 @@
     </row>
     <row r="121" spans="3:12" ht="15">
       <c r="C121" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D121" t="s">
         <v>159</v>
@@ -9596,7 +9600,7 @@
     </row>
     <row r="122" spans="3:12" ht="15">
       <c r="C122" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D122" t="s">
         <v>160</v>
@@ -9628,7 +9632,7 @@
     </row>
     <row r="123" spans="3:12" ht="15">
       <c r="C123" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D123" t="s">
         <v>161</v>
@@ -9660,7 +9664,7 @@
     </row>
     <row r="124" spans="3:12" ht="15">
       <c r="C124" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D124" t="s">
         <v>162</v>
@@ -9692,7 +9696,7 @@
     </row>
     <row r="125" spans="3:12" ht="14.25" customHeight="1">
       <c r="C125" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D125" t="s">
         <v>163</v>
@@ -9724,7 +9728,7 @@
     </row>
     <row r="126" spans="3:12" ht="15">
       <c r="C126" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D126" t="s">
         <v>164</v>
@@ -9756,7 +9760,7 @@
     </row>
     <row r="127" spans="3:12" ht="15">
       <c r="C127" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D127" t="s">
         <v>165</v>
@@ -9788,7 +9792,7 @@
     </row>
     <row r="128" spans="3:12" ht="15">
       <c r="C128" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D128" t="s">
         <v>166</v>
@@ -9820,7 +9824,7 @@
     </row>
     <row r="129" spans="3:12" ht="15">
       <c r="C129" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D129" t="s">
         <v>1125</v>
@@ -9852,7 +9856,7 @@
     </row>
     <row r="130" spans="3:12" ht="15">
       <c r="C130" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D130" t="s">
         <v>167</v>
@@ -9884,7 +9888,7 @@
     </row>
     <row r="131" spans="3:12" ht="15">
       <c r="C131" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D131" t="s">
         <v>168</v>
@@ -9916,7 +9920,7 @@
     </row>
     <row r="132" spans="3:12" ht="15">
       <c r="C132" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D132" t="s">
         <v>169</v>
@@ -9948,7 +9952,7 @@
     </row>
     <row r="133" spans="3:12" ht="15">
       <c r="C133" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D133" t="s">
         <v>170</v>
@@ -9980,7 +9984,7 @@
     </row>
     <row r="134" spans="3:12" ht="15">
       <c r="C134" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>343</v>
@@ -10012,7 +10016,7 @@
     </row>
     <row r="135" spans="3:12" ht="15">
       <c r="C135" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>1280</v>
@@ -10044,7 +10048,7 @@
     </row>
     <row r="136" spans="3:12" ht="15">
       <c r="C136" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>1281</v>
@@ -10076,7 +10080,7 @@
     </row>
     <row r="137" spans="3:12" ht="15">
       <c r="C137" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D137" t="s">
         <v>173</v>
@@ -10108,7 +10112,7 @@
     </row>
     <row r="138" spans="3:12" ht="15">
       <c r="C138" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D138" t="s">
         <v>175</v>
@@ -10140,7 +10144,7 @@
     </row>
     <row r="139" spans="3:12" ht="15">
       <c r="C139" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D139" t="s">
         <v>1282</v>
@@ -10172,7 +10176,7 @@
     </row>
     <row r="140" spans="3:12" ht="15">
       <c r="C140" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D140" t="s">
         <v>179</v>
@@ -10204,7 +10208,7 @@
     </row>
     <row r="141" spans="3:12" ht="15">
       <c r="C141" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D141" t="s">
         <v>1283</v>
@@ -10236,7 +10240,7 @@
     </row>
     <row r="142" spans="3:12" ht="15">
       <c r="C142" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D142" t="s">
         <v>181</v>
@@ -10268,7 +10272,7 @@
     </row>
     <row r="143" spans="3:12" ht="15">
       <c r="C143" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D143" t="s">
         <v>183</v>
@@ -10300,7 +10304,7 @@
     </row>
     <row r="144" spans="3:12" ht="15">
       <c r="C144" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D144" t="s">
         <v>186</v>
@@ -10332,7 +10336,7 @@
     </row>
     <row r="145" spans="3:12" ht="15">
       <c r="C145" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D145" t="s">
         <v>188</v>
@@ -10364,7 +10368,7 @@
     </row>
     <row r="146" spans="3:12" ht="15">
       <c r="C146" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D146" t="s">
         <v>1284</v>
@@ -10396,7 +10400,7 @@
     </row>
     <row r="147" spans="3:12" ht="15">
       <c r="C147" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D147" t="s">
         <v>722</v>
@@ -10414,7 +10418,7 @@
         <v>1289</v>
       </c>
       <c r="I147" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J147" t="s">
         <v>724</v>
@@ -10428,7 +10432,7 @@
     </row>
     <row r="148" spans="3:12" ht="15">
       <c r="C148" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D148" t="s">
         <v>190</v>
@@ -10460,7 +10464,7 @@
     </row>
     <row r="149" spans="3:12" ht="15">
       <c r="C149" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D149" t="s">
         <v>1285</v>
@@ -10492,7 +10496,7 @@
     </row>
     <row r="150" spans="3:12" ht="15">
       <c r="C150" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D150" t="s">
         <v>192</v>
@@ -10524,7 +10528,7 @@
     </row>
     <row r="151" spans="3:12" ht="15">
       <c r="C151" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D151" t="s">
         <v>194</v>
@@ -10556,7 +10560,7 @@
     </row>
     <row r="152" spans="3:12" ht="15">
       <c r="C152" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D152" t="s">
         <v>196</v>
@@ -10588,7 +10592,7 @@
     </row>
     <row r="153" spans="3:12" ht="15">
       <c r="C153" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D153" t="s">
         <v>199</v>
@@ -10620,7 +10624,7 @@
     </row>
     <row r="154" spans="3:12" ht="15">
       <c r="C154" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D154" t="s">
         <v>201</v>
@@ -10652,7 +10656,7 @@
     </row>
     <row r="155" spans="3:12" ht="15">
       <c r="C155" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D155" t="s">
         <v>203</v>
@@ -10684,7 +10688,7 @@
     </row>
     <row r="156" spans="3:12" ht="15">
       <c r="C156" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D156" t="s">
         <v>205</v>
@@ -10716,7 +10720,7 @@
     </row>
     <row r="157" spans="3:12" ht="15">
       <c r="C157" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D157" t="s">
         <v>1057</v>
@@ -10748,7 +10752,7 @@
     </row>
     <row r="158" spans="3:12" ht="15">
       <c r="C158" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D158" t="s">
         <v>207</v>
@@ -10780,7 +10784,7 @@
     </row>
     <row r="159" spans="3:12" ht="15">
       <c r="C159" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D159" t="s">
         <v>1078</v>
@@ -10798,13 +10802,13 @@
         <v>1296</v>
       </c>
       <c r="I159" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J159" t="s">
         <v>1278</v>
       </c>
       <c r="K159" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="L159" t="s">
         <v>1109</v>
@@ -10812,7 +10816,7 @@
     </row>
     <row r="160" spans="3:12" ht="15">
       <c r="C160" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D160" t="s">
         <v>209</v>
@@ -13262,7 +13266,7 @@
         <v>76</v>
       </c>
       <c r="J236" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="K236" t="s">
         <v>76</v>
@@ -13291,7 +13295,7 @@
         <v>1511</v>
       </c>
       <c r="I237" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="J237" t="s">
         <v>178</v>
@@ -15143,8 +15147,8 @@
       <c r="G295" t="s">
         <v>12</v>
       </c>
-      <c r="H295" t="s">
-        <v>1287</v>
+      <c r="H295" s="7" t="s">
+        <v>1752</v>
       </c>
       <c r="I295" t="s">
         <v>16</v>
@@ -15175,8 +15179,8 @@
       <c r="G296" t="s">
         <v>171</v>
       </c>
-      <c r="H296" t="s">
-        <v>1538</v>
+      <c r="H296" s="7" t="s">
+        <v>1753</v>
       </c>
       <c r="I296" t="s">
         <v>184</v>
@@ -15208,7 +15212,7 @@
         <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I297" t="s">
         <v>538</v>
@@ -15240,7 +15244,7 @@
         <v>12</v>
       </c>
       <c r="H298" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="I298" t="s">
         <v>541</v>
@@ -15272,7 +15276,7 @@
         <v>26</v>
       </c>
       <c r="H299" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I299" t="s">
         <v>16</v>
@@ -15432,7 +15436,7 @@
         <v>50</v>
       </c>
       <c r="H304" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I304" t="s">
         <v>48</v>
@@ -15464,7 +15468,7 @@
         <v>12</v>
       </c>
       <c r="H305" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I305" t="s">
         <v>553</v>
@@ -15496,7 +15500,7 @@
         <v>12</v>
       </c>
       <c r="H306" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I306" t="s">
         <v>556</v>
@@ -15592,7 +15596,7 @@
         <v>50</v>
       </c>
       <c r="H309" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I309" t="s">
         <v>44</v>
@@ -15656,7 +15660,7 @@
         <v>12</v>
       </c>
       <c r="H311" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="I311" t="s">
         <v>78</v>
@@ -15688,7 +15692,7 @@
         <v>12</v>
       </c>
       <c r="H312" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I312" t="s">
         <v>566</v>
@@ -15752,7 +15756,7 @@
         <v>12</v>
       </c>
       <c r="H314" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I314" t="s">
         <v>99</v>
@@ -15784,7 +15788,7 @@
         <v>12</v>
       </c>
       <c r="H315" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I315" t="s">
         <v>572</v>
@@ -15816,7 +15820,7 @@
         <v>50</v>
       </c>
       <c r="H316" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I316" t="s">
         <v>48</v>
@@ -16008,7 +16012,7 @@
         <v>12</v>
       </c>
       <c r="H322" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I322" t="s">
         <v>73</v>
@@ -16040,7 +16044,7 @@
         <v>12</v>
       </c>
       <c r="H323" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="I323" t="s">
         <v>585</v>
@@ -16072,7 +16076,7 @@
         <v>12</v>
       </c>
       <c r="H324" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="I324" t="s">
         <v>587</v>
@@ -16136,7 +16140,7 @@
         <v>12</v>
       </c>
       <c r="H326" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I326" t="s">
         <v>78</v>
@@ -16232,7 +16236,7 @@
         <v>12</v>
       </c>
       <c r="H329" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="I329" t="s">
         <v>13</v>
@@ -16264,7 +16268,7 @@
         <v>12</v>
       </c>
       <c r="H330" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I330" t="s">
         <v>598</v>
@@ -16392,7 +16396,7 @@
         <v>605</v>
       </c>
       <c r="H334" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I334" t="s">
         <v>606</v>
@@ -16488,7 +16492,7 @@
         <v>12</v>
       </c>
       <c r="H337" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I337" t="s">
         <v>78</v>
@@ -16520,7 +16524,7 @@
         <v>26</v>
       </c>
       <c r="H338" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I338" t="s">
         <v>32</v>
@@ -16552,7 +16556,7 @@
         <v>50</v>
       </c>
       <c r="H339" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I339" t="s">
         <v>16</v>
@@ -16616,7 +16620,7 @@
         <v>26</v>
       </c>
       <c r="H341" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I341" t="s">
         <v>27</v>
@@ -16648,7 +16652,7 @@
         <v>617</v>
       </c>
       <c r="H342" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I342" t="s">
         <v>618</v>
@@ -16680,7 +16684,7 @@
         <v>12</v>
       </c>
       <c r="H343" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I343" t="s">
         <v>318</v>
@@ -16712,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="H344" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I344" t="s">
         <v>340</v>
@@ -16840,7 +16844,7 @@
         <v>12</v>
       </c>
       <c r="H348" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="I348" t="s">
         <v>627</v>
@@ -16904,7 +16908,7 @@
         <v>12</v>
       </c>
       <c r="H350" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I350" t="s">
         <v>66</v>
@@ -16968,7 +16972,7 @@
         <v>26</v>
       </c>
       <c r="H352" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="I352" t="s">
         <v>27</v>
@@ -17000,7 +17004,7 @@
         <v>26</v>
       </c>
       <c r="H353" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I353" t="s">
         <v>32</v>
@@ -17128,7 +17132,7 @@
         <v>12</v>
       </c>
       <c r="H357" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I357" t="s">
         <v>78</v>
@@ -17160,7 +17164,7 @@
         <v>12</v>
       </c>
       <c r="H358" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I358" t="s">
         <v>16</v>
@@ -17224,7 +17228,7 @@
         <v>12</v>
       </c>
       <c r="H360" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I360" t="s">
         <v>92</v>
@@ -17256,7 +17260,7 @@
         <v>12</v>
       </c>
       <c r="H361" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I361" t="s">
         <v>92</v>
@@ -17320,7 +17324,7 @@
         <v>12</v>
       </c>
       <c r="H363" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I363" t="s">
         <v>654</v>
@@ -17384,7 +17388,7 @@
         <v>12</v>
       </c>
       <c r="H365" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I365" t="s">
         <v>78</v>
@@ -17448,7 +17452,7 @@
         <v>12</v>
       </c>
       <c r="H367" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I367" t="s">
         <v>66</v>
@@ -17512,7 +17516,7 @@
         <v>65</v>
       </c>
       <c r="H369" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I369" t="s">
         <v>618</v>
@@ -17544,7 +17548,7 @@
         <v>12</v>
       </c>
       <c r="H370" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I370" t="s">
         <v>30</v>
@@ -17576,7 +17580,7 @@
         <v>12</v>
       </c>
       <c r="H371" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I371" t="s">
         <v>654</v>
@@ -17608,7 +17612,7 @@
         <v>12</v>
       </c>
       <c r="H372" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I372" t="s">
         <v>553</v>
@@ -17640,7 +17644,7 @@
         <v>12</v>
       </c>
       <c r="H373" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I373" t="s">
         <v>340</v>
@@ -17672,7 +17676,7 @@
         <v>12</v>
       </c>
       <c r="H374" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I374" t="s">
         <v>654</v>
@@ -17704,7 +17708,7 @@
         <v>674</v>
       </c>
       <c r="H375" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I375" t="s">
         <v>42</v>
@@ -17736,7 +17740,7 @@
         <v>12</v>
       </c>
       <c r="H376" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I376" t="s">
         <v>99</v>
@@ -17768,7 +17772,7 @@
         <v>12</v>
       </c>
       <c r="H377" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="I377" t="s">
         <v>66</v>
@@ -17800,7 +17804,7 @@
         <v>12</v>
       </c>
       <c r="H378" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="I378" t="s">
         <v>16</v>
@@ -17832,7 +17836,7 @@
         <v>12</v>
       </c>
       <c r="H379" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I379" t="s">
         <v>32</v>
@@ -17896,7 +17900,7 @@
         <v>26</v>
       </c>
       <c r="H381" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="I381" t="s">
         <v>32</v>
@@ -17992,7 +17996,7 @@
         <v>12</v>
       </c>
       <c r="H384" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I384" t="s">
         <v>99</v>
@@ -18024,7 +18028,7 @@
         <v>617</v>
       </c>
       <c r="H385" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="I385" t="s">
         <v>697</v>
@@ -18088,10 +18092,10 @@
         <v>176</v>
       </c>
       <c r="H387" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I387" t="s">
         <v>1747</v>
-      </c>
-      <c r="I387" t="s">
-        <v>1748</v>
       </c>
       <c r="J387" t="s">
         <v>405</v>
@@ -18248,7 +18252,7 @@
         <v>26</v>
       </c>
       <c r="H392" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I392" t="s">
         <v>32</v>
@@ -18280,7 +18284,7 @@
         <v>26</v>
       </c>
       <c r="H393" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I393" t="s">
         <v>27</v>
@@ -18408,7 +18412,7 @@
         <v>12</v>
       </c>
       <c r="H397" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I397" t="s">
         <v>715</v>
@@ -18504,7 +18508,7 @@
         <v>617</v>
       </c>
       <c r="H400" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I400" t="s">
         <v>720</v>
@@ -18856,7 +18860,7 @@
         <v>12</v>
       </c>
       <c r="H411" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="I411" t="s">
         <v>73</v>
@@ -18888,7 +18892,7 @@
         <v>12</v>
       </c>
       <c r="H412" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="I412" t="s">
         <v>741</v>
@@ -18952,7 +18956,7 @@
         <v>12</v>
       </c>
       <c r="H414" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I414" t="s">
         <v>556</v>
@@ -18984,7 +18988,7 @@
         <v>12</v>
       </c>
       <c r="H415" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I415" t="s">
         <v>16</v>
@@ -19016,7 +19020,7 @@
         <v>50</v>
       </c>
       <c r="H416" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I416" t="s">
         <v>78</v>
@@ -19048,7 +19052,7 @@
         <v>12</v>
       </c>
       <c r="H417" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I417" t="s">
         <v>66</v>
@@ -19080,7 +19084,7 @@
         <v>12</v>
       </c>
       <c r="H418" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I418" t="s">
         <v>32</v>
@@ -19112,7 +19116,7 @@
         <v>12</v>
       </c>
       <c r="H419" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I419" t="s">
         <v>66</v>
@@ -19144,7 +19148,7 @@
         <v>12</v>
       </c>
       <c r="H420" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I420" t="s">
         <v>73</v>
@@ -19432,7 +19436,7 @@
         <v>12</v>
       </c>
       <c r="H429" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I429" t="s">
         <v>400</v>
@@ -19528,7 +19532,7 @@
         <v>12</v>
       </c>
       <c r="H432" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="I432" t="s">
         <v>66</v>
@@ -19560,7 +19564,7 @@
         <v>12</v>
       </c>
       <c r="H433" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I433" t="s">
         <v>73</v>
@@ -19592,7 +19596,7 @@
         <v>12</v>
       </c>
       <c r="H434" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I434" t="s">
         <v>99</v>
@@ -19624,7 +19628,7 @@
         <v>12</v>
       </c>
       <c r="H435" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I435" t="s">
         <v>400</v>
@@ -19656,7 +19660,7 @@
         <v>12</v>
       </c>
       <c r="H436" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I436" t="s">
         <v>78</v>
@@ -19816,7 +19820,7 @@
         <v>12</v>
       </c>
       <c r="H441" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I441" t="s">
         <v>78</v>
@@ -19886,7 +19890,7 @@
         <v>76</v>
       </c>
       <c r="J443" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="K443" t="s">
         <v>76</v>
@@ -19976,7 +19980,7 @@
         <v>26</v>
       </c>
       <c r="H446" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I446" t="s">
         <v>32</v>
@@ -20008,7 +20012,7 @@
         <v>617</v>
       </c>
       <c r="H447" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I447" t="s">
         <v>790</v>
@@ -20040,7 +20044,7 @@
         <v>12</v>
       </c>
       <c r="H448" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I448" t="s">
         <v>92</v>
@@ -20168,7 +20172,7 @@
         <v>12</v>
       </c>
       <c r="H452" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I452" t="s">
         <v>400</v>
@@ -20200,7 +20204,7 @@
         <v>12</v>
       </c>
       <c r="H453" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I453" t="s">
         <v>797</v>
@@ -20264,7 +20268,7 @@
         <v>26</v>
       </c>
       <c r="H455" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I455" t="s">
         <v>27</v>
@@ -20296,7 +20300,7 @@
         <v>26</v>
       </c>
       <c r="H456" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I456" t="s">
         <v>27</v>
@@ -20360,7 +20364,7 @@
         <v>12</v>
       </c>
       <c r="H458" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I458" t="s">
         <v>805</v>
@@ -20392,7 +20396,7 @@
         <v>617</v>
       </c>
       <c r="H459" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I459" t="s">
         <v>807</v>
@@ -20424,7 +20428,7 @@
         <v>12</v>
       </c>
       <c r="H460" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I460" t="s">
         <v>598</v>
@@ -20456,7 +20460,7 @@
         <v>12</v>
       </c>
       <c r="H461" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I461" t="s">
         <v>16</v>
@@ -20488,7 +20492,7 @@
         <v>26</v>
       </c>
       <c r="H462" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="I462" t="s">
         <v>16</v>
@@ -20584,7 +20588,7 @@
         <v>12</v>
       </c>
       <c r="H465" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I465" t="s">
         <v>598</v>
@@ -20648,7 +20652,7 @@
         <v>26</v>
       </c>
       <c r="H467" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I467" t="s">
         <v>32</v>
@@ -20680,7 +20684,7 @@
         <v>12</v>
       </c>
       <c r="H468" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I468" t="s">
         <v>99</v>
@@ -20712,7 +20716,7 @@
         <v>26</v>
       </c>
       <c r="H469" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I469" t="s">
         <v>73</v>
@@ -20744,7 +20748,7 @@
         <v>26</v>
       </c>
       <c r="H470" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I470" t="s">
         <v>73</v>
@@ -20840,7 +20844,7 @@
         <v>12</v>
       </c>
       <c r="H473" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I473" t="s">
         <v>16</v>
@@ -20872,7 +20876,7 @@
         <v>12</v>
       </c>
       <c r="H474" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I474" t="s">
         <v>73</v>
@@ -20904,7 +20908,7 @@
         <v>50</v>
       </c>
       <c r="H475" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I475" t="s">
         <v>32</v>
@@ -21032,7 +21036,7 @@
         <v>50</v>
       </c>
       <c r="H479" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I479" t="s">
         <v>16</v>
@@ -21352,7 +21356,7 @@
         <v>12</v>
       </c>
       <c r="H489" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I489" t="s">
         <v>553</v>
@@ -21384,7 +21388,7 @@
         <v>12</v>
       </c>
       <c r="H490" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I490" t="s">
         <v>46</v>
@@ -21416,7 +21420,7 @@
         <v>12</v>
       </c>
       <c r="H491" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I491" t="s">
         <v>92</v>
@@ -21448,7 +21452,7 @@
         <v>12</v>
       </c>
       <c r="H492" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I492" t="s">
         <v>13</v>
@@ -21544,7 +21548,7 @@
         <v>26</v>
       </c>
       <c r="H495" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I495" t="s">
         <v>27</v>
@@ -21576,7 +21580,7 @@
         <v>26</v>
       </c>
       <c r="H496" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I496" t="s">
         <v>27</v>
@@ -21640,7 +21644,7 @@
         <v>26</v>
       </c>
       <c r="H498" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I498" t="s">
         <v>853</v>
@@ -21672,7 +21676,7 @@
         <v>26</v>
       </c>
       <c r="H499" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I499" t="s">
         <v>27</v>
@@ -21736,7 +21740,7 @@
         <v>26</v>
       </c>
       <c r="H501" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I501" t="s">
         <v>73</v>
@@ -21768,7 +21772,7 @@
         <v>26</v>
       </c>
       <c r="H502" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I502" t="s">
         <v>73</v>
@@ -21800,7 +21804,7 @@
         <v>26</v>
       </c>
       <c r="H503" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I503" t="s">
         <v>73</v>
@@ -21832,7 +21836,7 @@
         <v>26</v>
       </c>
       <c r="H504" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I504" t="s">
         <v>598</v>
@@ -21864,7 +21868,7 @@
         <v>12</v>
       </c>
       <c r="H505" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I505" t="s">
         <v>866</v>
@@ -21896,10 +21900,10 @@
         <v>12</v>
       </c>
       <c r="H506" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I506" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J506" t="s">
         <v>341</v>
@@ -21960,7 +21964,7 @@
         <v>12</v>
       </c>
       <c r="H508" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I508" t="s">
         <v>44</v>
@@ -21992,7 +21996,7 @@
         <v>26</v>
       </c>
       <c r="H509" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I509" t="s">
         <v>32</v>
@@ -22088,7 +22092,7 @@
         <v>26</v>
       </c>
       <c r="H512" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I512" t="s">
         <v>32</v>
@@ -22120,7 +22124,7 @@
         <v>12</v>
       </c>
       <c r="H513" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I513" t="s">
         <v>48</v>
@@ -22152,7 +22156,7 @@
         <v>12</v>
       </c>
       <c r="H514" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I514" t="s">
         <v>876</v>
@@ -22216,7 +22220,7 @@
         <v>12</v>
       </c>
       <c r="H516" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I516" t="s">
         <v>78</v>
@@ -22312,7 +22316,7 @@
         <v>12</v>
       </c>
       <c r="H519" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I519" t="s">
         <v>400</v>
@@ -22344,7 +22348,7 @@
         <v>12</v>
       </c>
       <c r="H520" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="I520" t="s">
         <v>16</v>
@@ -22440,7 +22444,7 @@
         <v>26</v>
       </c>
       <c r="H523" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="I523" t="s">
         <v>32</v>
@@ -22536,7 +22540,7 @@
         <v>12</v>
       </c>
       <c r="H526" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I526" t="s">
         <v>606</v>
@@ -22600,7 +22604,7 @@
         <v>12</v>
       </c>
       <c r="H528" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="I528" t="s">
         <v>86</v>
@@ -22632,7 +22636,7 @@
         <v>26</v>
       </c>
       <c r="H529" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="I529" t="s">
         <v>16</v>
@@ -22664,7 +22668,7 @@
         <v>26</v>
       </c>
       <c r="H530" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="I530" t="s">
         <v>16</v>
@@ -22696,7 +22700,7 @@
         <v>50</v>
       </c>
       <c r="H531" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="I531" t="s">
         <v>73</v>
@@ -22760,7 +22764,7 @@
         <v>12</v>
       </c>
       <c r="H533" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I533" t="s">
         <v>44</v>
@@ -22792,7 +22796,7 @@
         <v>12</v>
       </c>
       <c r="H534" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I534" t="s">
         <v>606</v>
@@ -22824,7 +22828,7 @@
         <v>26</v>
       </c>
       <c r="H535" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I535" t="s">
         <v>400</v>
@@ -22856,7 +22860,7 @@
         <v>26</v>
       </c>
       <c r="H536" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I536" t="s">
         <v>16</v>
@@ -22920,7 +22924,7 @@
         <v>26</v>
       </c>
       <c r="H538" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I538" t="s">
         <v>73</v>
@@ -22952,7 +22956,7 @@
         <v>12</v>
       </c>
       <c r="H539" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="I539" t="s">
         <v>797</v>
@@ -22984,7 +22988,7 @@
         <v>26</v>
       </c>
       <c r="H540" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I540" t="s">
         <v>16</v>
@@ -23016,7 +23020,7 @@
         <v>12</v>
       </c>
       <c r="H541" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I541" t="s">
         <v>697</v>
@@ -23048,7 +23052,7 @@
         <v>26</v>
       </c>
       <c r="H542" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I542" t="s">
         <v>16</v>
@@ -23080,7 +23084,7 @@
         <v>12</v>
       </c>
       <c r="H543" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I543" t="s">
         <v>46</v>
@@ -23176,7 +23180,7 @@
         <v>12</v>
       </c>
       <c r="H546" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="I546" t="s">
         <v>32</v>
@@ -23208,7 +23212,7 @@
         <v>12</v>
       </c>
       <c r="H547" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I547" t="s">
         <v>482</v>
@@ -23272,7 +23276,7 @@
         <v>617</v>
       </c>
       <c r="H549" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I549" t="s">
         <v>924</v>
@@ -23304,7 +23308,7 @@
         <v>26</v>
       </c>
       <c r="H550" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I550" t="s">
         <v>27</v>
@@ -23336,7 +23340,7 @@
         <v>12</v>
       </c>
       <c r="H551" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I551" t="s">
         <v>927</v>
@@ -23368,7 +23372,7 @@
         <v>12</v>
       </c>
       <c r="H552" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I552" t="s">
         <v>66</v>
@@ -23432,7 +23436,7 @@
         <v>12</v>
       </c>
       <c r="H554" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I554" t="s">
         <v>66</v>
@@ -23464,7 +23468,7 @@
         <v>12</v>
       </c>
       <c r="H555" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I555" t="s">
         <v>553</v>
@@ -23528,7 +23532,7 @@
         <v>12</v>
       </c>
       <c r="H557" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I557" t="s">
         <v>99</v>
@@ -23560,7 +23564,7 @@
         <v>26</v>
       </c>
       <c r="H558" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I558" t="s">
         <v>32</v>
@@ -23624,7 +23628,7 @@
         <v>26</v>
       </c>
       <c r="H560" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I560" t="s">
         <v>32</v>
@@ -23656,7 +23660,7 @@
         <v>26</v>
       </c>
       <c r="H561" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I561" t="s">
         <v>13</v>
@@ -23688,7 +23692,7 @@
         <v>26</v>
       </c>
       <c r="H562" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I562" t="s">
         <v>44</v>
@@ -23720,7 +23724,7 @@
         <v>26</v>
       </c>
       <c r="H563" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I563" t="s">
         <v>44</v>
@@ -23752,7 +23756,7 @@
         <v>26</v>
       </c>
       <c r="H564" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I564" t="s">
         <v>32</v>
@@ -23784,7 +23788,7 @@
         <v>26</v>
       </c>
       <c r="H565" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I565" t="s">
         <v>32</v>
@@ -23848,7 +23852,7 @@
         <v>12</v>
       </c>
       <c r="H567" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I567" t="s">
         <v>99</v>
@@ -23880,7 +23884,7 @@
         <v>12</v>
       </c>
       <c r="H568" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I568" t="s">
         <v>46</v>
@@ -23912,7 +23916,7 @@
         <v>12</v>
       </c>
       <c r="H569" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I569" t="s">
         <v>86</v>
@@ -23976,7 +23980,7 @@
         <v>12</v>
       </c>
       <c r="H571" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I571" t="s">
         <v>99</v>
@@ -24008,7 +24012,7 @@
         <v>12</v>
       </c>
       <c r="H572" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I572" t="s">
         <v>78</v>
@@ -24040,7 +24044,7 @@
         <v>50</v>
       </c>
       <c r="H573" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I573" t="s">
         <v>16</v>
@@ -24072,7 +24076,7 @@
         <v>26</v>
       </c>
       <c r="H574" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I574" t="s">
         <v>46</v>
@@ -24104,7 +24108,7 @@
         <v>12</v>
       </c>
       <c r="H575" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I575" t="s">
         <v>99</v>
@@ -24136,7 +24140,7 @@
         <v>12</v>
       </c>
       <c r="H576" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I576" t="s">
         <v>956</v>
@@ -24168,7 +24172,7 @@
         <v>12</v>
       </c>
       <c r="H577" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I577" t="s">
         <v>44</v>
@@ -24264,7 +24268,7 @@
         <v>12</v>
       </c>
       <c r="H580" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I580" t="s">
         <v>16</v>
@@ -24296,7 +24300,7 @@
         <v>12</v>
       </c>
       <c r="H581" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I581" t="s">
         <v>866</v>
@@ -24456,7 +24460,7 @@
         <v>26</v>
       </c>
       <c r="H586" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I586" t="s">
         <v>973</v>
@@ -24488,7 +24492,7 @@
         <v>12</v>
       </c>
       <c r="H587" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="I587" t="s">
         <v>16</v>
@@ -24616,7 +24620,7 @@
         <v>12</v>
       </c>
       <c r="H591" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I591" t="s">
         <v>815</v>
@@ -24680,7 +24684,7 @@
         <v>50</v>
       </c>
       <c r="H593" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="I593" t="s">
         <v>44</v>
@@ -24712,7 +24716,7 @@
         <v>12</v>
       </c>
       <c r="H594" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="I594" t="s">
         <v>44</v>
@@ -24744,7 +24748,7 @@
         <v>12</v>
       </c>
       <c r="H595" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="I595" t="s">
         <v>13</v>
@@ -24776,7 +24780,7 @@
         <v>12</v>
       </c>
       <c r="H596" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I596" t="s">
         <v>13</v>
@@ -24808,7 +24812,7 @@
         <v>12</v>
       </c>
       <c r="H597" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="I597" t="s">
         <v>78</v>
@@ -24840,7 +24844,7 @@
         <v>12</v>
       </c>
       <c r="H598" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I598" t="s">
         <v>44</v>
@@ -24872,7 +24876,7 @@
         <v>12</v>
       </c>
       <c r="H599" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I599" t="s">
         <v>94</v>
@@ -24904,7 +24908,7 @@
         <v>12</v>
       </c>
       <c r="H600" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="I600" t="s">
         <v>13</v>
@@ -24936,7 +24940,7 @@
         <v>12</v>
       </c>
       <c r="H601" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="I601" t="s">
         <v>99</v>
@@ -24968,7 +24972,7 @@
         <v>12</v>
       </c>
       <c r="H602" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I602" t="s">
         <v>998</v>
@@ -25000,7 +25004,7 @@
         <v>26</v>
       </c>
       <c r="H603" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I603" t="s">
         <v>27</v>
@@ -25032,7 +25036,7 @@
         <v>26</v>
       </c>
       <c r="H604" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I604" t="s">
         <v>32</v>
@@ -25224,7 +25228,7 @@
         <v>12</v>
       </c>
       <c r="H610" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I610" t="s">
         <v>92</v>
@@ -25256,7 +25260,7 @@
         <v>12</v>
       </c>
       <c r="H611" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I611" t="s">
         <v>86</v>
@@ -25288,7 +25292,7 @@
         <v>12</v>
       </c>
       <c r="H612" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I612" t="s">
         <v>46</v>
@@ -25320,7 +25324,7 @@
         <v>12</v>
       </c>
       <c r="H613" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I613" t="s">
         <v>482</v>
@@ -25416,7 +25420,7 @@
         <v>12</v>
       </c>
       <c r="H616" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I616" t="s">
         <v>16</v>
@@ -25448,7 +25452,7 @@
         <v>12</v>
       </c>
       <c r="H617" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I617" t="s">
         <v>78</v>
@@ -25480,7 +25484,7 @@
         <v>12</v>
       </c>
       <c r="H618" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I618" t="s">
         <v>86</v>
@@ -25512,7 +25516,7 @@
         <v>674</v>
       </c>
       <c r="H619" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I619" t="s">
         <v>323</v>
@@ -25544,7 +25548,7 @@
         <v>50</v>
       </c>
       <c r="H620" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="I620" t="s">
         <v>44</v>
@@ -25576,7 +25580,7 @@
         <v>50</v>
       </c>
       <c r="H621" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I621" t="s">
         <v>46</v>
@@ -25608,7 +25612,7 @@
         <v>12</v>
       </c>
       <c r="H622" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="I622" t="s">
         <v>1129</v>
@@ -25704,7 +25708,7 @@
         <v>12</v>
       </c>
       <c r="H625" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I625" t="s">
         <v>73</v>
@@ -25768,7 +25772,7 @@
         <v>12</v>
       </c>
       <c r="H627" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I627" t="s">
         <v>94</v>
@@ -25800,7 +25804,7 @@
         <v>12</v>
       </c>
       <c r="H628" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I628" t="s">
         <v>13</v>
@@ -25832,7 +25836,7 @@
         <v>12</v>
       </c>
       <c r="H629" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I629" t="s">
         <v>44</v>
@@ -25864,7 +25868,7 @@
         <v>12</v>
       </c>
       <c r="H630" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I630" t="s">
         <v>13</v>
@@ -25896,7 +25900,7 @@
         <v>12</v>
       </c>
       <c r="H631" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I631" t="s">
         <v>44</v>
@@ -25960,7 +25964,7 @@
         <v>12</v>
       </c>
       <c r="H633" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I633" t="s">
         <v>99</v>
@@ -25992,7 +25996,7 @@
         <v>12</v>
       </c>
       <c r="H634" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I634" t="s">
         <v>19</v>
@@ -26024,7 +26028,7 @@
         <v>12</v>
       </c>
       <c r="H635" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I635" t="s">
         <v>66</v>
@@ -26056,7 +26060,7 @@
         <v>12</v>
       </c>
       <c r="H636" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="I636" t="s">
         <v>66</v>
@@ -26088,7 +26092,7 @@
         <v>12</v>
       </c>
       <c r="H637" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I637" t="s">
         <v>1047</v>
@@ -26216,7 +26220,7 @@
         <v>12</v>
       </c>
       <c r="H641" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I641" t="s">
         <v>46</v>
@@ -26248,7 +26252,7 @@
         <v>12</v>
       </c>
       <c r="H642" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="I642" t="s">
         <v>654</v>
@@ -26280,10 +26284,10 @@
         <v>12</v>
       </c>
       <c r="H643" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I643" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J643" t="s">
         <v>357</v>
@@ -26376,7 +26380,7 @@
         <v>12</v>
       </c>
       <c r="H646" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="I646" t="s">
         <v>1059</v>
@@ -26472,7 +26476,7 @@
         <v>26</v>
       </c>
       <c r="H649" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="I649" t="s">
         <v>1063</v>
@@ -26504,7 +26508,7 @@
         <v>26</v>
       </c>
       <c r="H650" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I650" t="s">
         <v>32</v>
@@ -26536,7 +26540,7 @@
         <v>26</v>
       </c>
       <c r="H651" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="I651" t="s">
         <v>1063</v>
@@ -26568,7 +26572,7 @@
         <v>26</v>
       </c>
       <c r="H652" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I652" t="s">
         <v>16</v>
@@ -26600,7 +26604,7 @@
         <v>26</v>
       </c>
       <c r="H653" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="I653" t="s">
         <v>32</v>
@@ -26632,7 +26636,7 @@
         <v>12</v>
       </c>
       <c r="H654" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I654" t="s">
         <v>78</v>
@@ -26664,7 +26668,7 @@
         <v>26</v>
       </c>
       <c r="H655" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I655" t="s">
         <v>16</v>
@@ -26696,7 +26700,7 @@
         <v>26</v>
       </c>
       <c r="H656" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I656" t="s">
         <v>32</v>
@@ -26728,7 +26732,7 @@
         <v>12</v>
       </c>
       <c r="H657" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I657" t="s">
         <v>556</v>
@@ -26760,7 +26764,7 @@
         <v>50</v>
       </c>
       <c r="H658" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I658" t="s">
         <v>48</v>
@@ -26824,7 +26828,7 @@
         <v>50</v>
       </c>
       <c r="H660" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I660" t="s">
         <v>46</v>
@@ -26888,7 +26892,7 @@
         <v>50</v>
       </c>
       <c r="H662" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="I662" t="s">
         <v>44</v>
@@ -26952,7 +26956,7 @@
         <v>26</v>
       </c>
       <c r="H664" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="I664" t="s">
         <v>1063</v>
@@ -27112,7 +27116,7 @@
         <v>65</v>
       </c>
       <c r="H669" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I669" t="s">
         <v>1089</v>
@@ -27144,7 +27148,7 @@
         <v>26</v>
       </c>
       <c r="H670" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="I670" t="s">
         <v>27</v>
@@ -27160,6 +27164,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L670"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="1737">
   <si>
     <t>Type</t>
   </si>
@@ -5658,10 +5658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L664"/>
+  <dimension ref="B1:L670"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1:L670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12573,6 +12573,12 @@
       <c r="J214" t="s">
         <v>175</v>
       </c>
+      <c r="K214" t="s">
+        <v>75</v>
+      </c>
+      <c r="L214" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="215" spans="2:12" ht="15">
       <c r="B215" s="6"/>
@@ -27419,6 +27425,198 @@
         <v>75</v>
       </c>
       <c r="L664" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="665" spans="2:12" ht="15">
+      <c r="C665" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E665" t="s">
+        <v>24</v>
+      </c>
+      <c r="F665" t="s">
+        <v>11</v>
+      </c>
+      <c r="G665" t="s">
+        <v>173</v>
+      </c>
+      <c r="H665" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I665" t="s">
+        <v>75</v>
+      </c>
+      <c r="J665" t="s">
+        <v>337</v>
+      </c>
+      <c r="K665" t="s">
+        <v>75</v>
+      </c>
+      <c r="L665" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="666" spans="2:12" ht="15">
+      <c r="C666" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E666" t="s">
+        <v>15</v>
+      </c>
+      <c r="F666" t="s">
+        <v>11</v>
+      </c>
+      <c r="G666" t="s">
+        <v>173</v>
+      </c>
+      <c r="H666" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I666" t="s">
+        <v>75</v>
+      </c>
+      <c r="J666" t="s">
+        <v>341</v>
+      </c>
+      <c r="K666" t="s">
+        <v>75</v>
+      </c>
+      <c r="L666" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="667" spans="2:12" ht="15">
+      <c r="C667" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E667" t="s">
+        <v>21</v>
+      </c>
+      <c r="F667" t="s">
+        <v>11</v>
+      </c>
+      <c r="G667" t="s">
+        <v>173</v>
+      </c>
+      <c r="H667" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I667" t="s">
+        <v>75</v>
+      </c>
+      <c r="J667" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K667" t="s">
+        <v>75</v>
+      </c>
+      <c r="L667" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="668" spans="2:12" ht="15">
+      <c r="C668" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E668" t="s">
+        <v>15</v>
+      </c>
+      <c r="F668" t="s">
+        <v>11</v>
+      </c>
+      <c r="G668" t="s">
+        <v>173</v>
+      </c>
+      <c r="H668" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I668" t="s">
+        <v>75</v>
+      </c>
+      <c r="J668" t="s">
+        <v>401</v>
+      </c>
+      <c r="K668" t="s">
+        <v>75</v>
+      </c>
+      <c r="L668" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="669" spans="2:12" ht="15">
+      <c r="C669" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E669" t="s">
+        <v>15</v>
+      </c>
+      <c r="F669" t="s">
+        <v>11</v>
+      </c>
+      <c r="G669" t="s">
+        <v>64</v>
+      </c>
+      <c r="H669" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I669" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J669" t="s">
+        <v>726</v>
+      </c>
+      <c r="K669" t="s">
+        <v>75</v>
+      </c>
+      <c r="L669" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="670" spans="2:12" ht="15">
+      <c r="C670" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E670" t="s">
+        <v>18</v>
+      </c>
+      <c r="F670" t="s">
+        <v>11</v>
+      </c>
+      <c r="G670" t="s">
+        <v>26</v>
+      </c>
+      <c r="H670" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I670" t="s">
+        <v>27</v>
+      </c>
+      <c r="J670" t="s">
+        <v>823</v>
+      </c>
+      <c r="K670" t="s">
+        <v>75</v>
+      </c>
+      <c r="L670" t="s">
         <v>1087</v>
       </c>
     </row>

--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -5649,7 +5649,7 @@
   <dimension ref="B1:L663"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D663"/>
+      <selection activeCell="C1" sqref="C1:L663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7107,31 +7107,31 @@
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="4" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -7171,31 +7171,31 @@
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
         <v>1166</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" t="s">
         <v>207</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" t="s">
         <v>204</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -9827,31 +9827,31 @@
       <c r="C131" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="F131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="I131" t="s">
-        <v>75</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="I131" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L131" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -9859,31 +9859,31 @@
       <c r="C132" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="F132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="I132" t="s">
-        <v>75</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="I132" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K132" t="s">
-        <v>75</v>
-      </c>
-      <c r="L132" t="s">
+      <c r="K132" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L132" s="5" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -9923,31 +9923,31 @@
       <c r="C134" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" t="s">
         <v>1239</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" t="s">
         <v>320</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="5" t="s">
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
         <v>169</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H134" t="s">
         <v>1220</v>
       </c>
-      <c r="I134" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J134" s="5" t="s">
+      <c r="I134" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" t="s">
         <v>321</v>
       </c>
-      <c r="K134" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L134" s="5" t="s">
+      <c r="K134" t="s">
+        <v>75</v>
+      </c>
+      <c r="L134" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -9955,31 +9955,31 @@
       <c r="C135" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" t="s">
         <v>1240</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" t="s">
         <v>320</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="5" t="s">
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
         <v>169</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" t="s">
         <v>1221</v>
       </c>
-      <c r="I135" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J135" s="5" t="s">
+      <c r="I135" t="s">
+        <v>75</v>
+      </c>
+      <c r="J135" t="s">
         <v>533</v>
       </c>
-      <c r="K135" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L135" s="5" t="s">
+      <c r="K135" t="s">
+        <v>75</v>
+      </c>
+      <c r="L135" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -11152,31 +11152,31 @@
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="F172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="I172" t="s">
-        <v>75</v>
-      </c>
-      <c r="J172" t="s">
+      <c r="I172" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J172" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="K172" t="s">
-        <v>75</v>
-      </c>
-      <c r="L172" t="s">
+      <c r="K172" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L172" s="5" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -11185,31 +11185,31 @@
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="F173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" s="5" t="s">
         <v>1448</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="J173" t="s">
+      <c r="J173" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="K173" t="s">
-        <v>75</v>
-      </c>
-      <c r="L173" t="s">
+      <c r="K173" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L173" s="5" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -11251,31 +11251,31 @@
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" t="s">
         <v>1239</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" t="s">
         <v>320</v>
       </c>
-      <c r="F175" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" s="5" t="s">
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s">
         <v>169</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H175" t="s">
         <v>1220</v>
       </c>
-      <c r="I175" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J175" s="5" t="s">
+      <c r="I175" t="s">
+        <v>75</v>
+      </c>
+      <c r="J175" t="s">
         <v>321</v>
       </c>
-      <c r="K175" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L175" s="5" t="s">
+      <c r="K175" t="s">
+        <v>75</v>
+      </c>
+      <c r="L175" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -11284,31 +11284,31 @@
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" t="s">
         <v>1240</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" t="s">
         <v>320</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="5" t="s">
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" t="s">
         <v>169</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="H176" t="s">
         <v>1221</v>
       </c>
-      <c r="I176" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J176" s="5" t="s">
+      <c r="I176" t="s">
+        <v>75</v>
+      </c>
+      <c r="J176" t="s">
         <v>533</v>
       </c>
-      <c r="K176" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L176" s="5" t="s">
+      <c r="K176" t="s">
+        <v>75</v>
+      </c>
+      <c r="L176" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -12703,19 +12703,19 @@
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s">
+      <c r="F219" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="6" t="s">
         <v>1143</v>
       </c>
       <c r="I219" t="s">
@@ -12736,19 +12736,19 @@
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F220" t="s">
-        <v>11</v>
-      </c>
-      <c r="G220" t="s">
+      <c r="F220" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="6" t="s">
         <v>1464</v>
       </c>
       <c r="I220" t="s">
@@ -13198,19 +13198,19 @@
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="6" t="s">
+      <c r="D234" t="s">
         <v>1438</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E234" t="s">
         <v>21</v>
       </c>
-      <c r="F234" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G234" s="6" t="s">
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" t="s">
         <v>169</v>
       </c>
-      <c r="H234" s="6" t="s">
+      <c r="H234" t="s">
         <v>1295</v>
       </c>
       <c r="I234" t="s">
@@ -13231,19 +13231,19 @@
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D235" t="s">
         <v>1439</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E235" t="s">
         <v>21</v>
       </c>
-      <c r="F235" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G235" s="6" t="s">
+      <c r="F235" t="s">
+        <v>11</v>
+      </c>
+      <c r="G235" t="s">
         <v>1097</v>
       </c>
-      <c r="H235" s="6" t="s">
+      <c r="H235" t="s">
         <v>1469</v>
       </c>
       <c r="I235" t="s">
@@ -14188,7 +14188,7 @@
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="6" t="s">
         <v>468</v>
       </c>
       <c r="E264" t="s">
@@ -14221,7 +14221,7 @@
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="6" t="s">
         <v>469</v>
       </c>
       <c r="E265" t="s">
@@ -14782,7 +14782,7 @@
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D282" s="6" t="s">
+      <c r="D282" t="s">
         <v>496</v>
       </c>
       <c r="E282" t="s">
@@ -14815,7 +14815,7 @@
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D283" s="6" t="s">
+      <c r="D283" t="s">
         <v>497</v>
       </c>
       <c r="E283" t="s">
@@ -15058,7 +15058,7 @@
       <c r="G290" t="s">
         <v>169</v>
       </c>
-      <c r="H290" t="s">
+      <c r="H290" s="7" t="s">
         <v>1323</v>
       </c>
       <c r="I290" t="s">
@@ -15091,7 +15091,7 @@
       <c r="G291" t="s">
         <v>169</v>
       </c>
-      <c r="H291" t="s">
+      <c r="H291" s="7" t="s">
         <v>1324</v>
       </c>
       <c r="I291" t="s">
@@ -15124,7 +15124,7 @@
       <c r="G292" t="s">
         <v>12</v>
       </c>
-      <c r="H292" s="7" t="s">
+      <c r="H292" t="s">
         <v>1700</v>
       </c>
       <c r="I292" t="s">
@@ -15157,7 +15157,7 @@
       <c r="G293" t="s">
         <v>164</v>
       </c>
-      <c r="H293" s="7" t="s">
+      <c r="H293" t="s">
         <v>1701</v>
       </c>
       <c r="I293" t="s">
@@ -17983,7 +17983,7 @@
       <c r="C379" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="6" t="s">
         <v>662</v>
       </c>
       <c r="E379" t="s">
@@ -18016,7 +18016,7 @@
       <c r="C380" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="6" t="s">
         <v>665</v>
       </c>
       <c r="E380" t="s">
@@ -18214,7 +18214,7 @@
       <c r="C386" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D386" s="6" t="s">
+      <c r="D386" t="s">
         <v>676</v>
       </c>
       <c r="E386" t="s">
@@ -18247,7 +18247,7 @@
       <c r="C387" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D387" s="6" t="s">
+      <c r="D387" t="s">
         <v>678</v>
       </c>
       <c r="E387" t="s">
@@ -19864,7 +19864,7 @@
       <c r="C436" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="6" t="s">
         <v>753</v>
       </c>
       <c r="E436" t="s">
@@ -19897,7 +19897,7 @@
       <c r="C437" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="6" t="s">
         <v>754</v>
       </c>
       <c r="E437" t="s">
@@ -20128,7 +20128,7 @@
       <c r="C444" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D444" s="6" t="s">
+      <c r="D444" t="s">
         <v>762</v>
       </c>
       <c r="E444" t="s">
@@ -20161,7 +20161,7 @@
       <c r="C445" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D445" s="6" t="s">
+      <c r="D445" t="s">
         <v>764</v>
       </c>
       <c r="E445" t="s">
@@ -21151,31 +21151,31 @@
       <c r="C475" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D475" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="E475" t="s">
+      <c r="E475" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F475" t="s">
-        <v>11</v>
-      </c>
-      <c r="G475" t="s">
+      <c r="F475" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G475" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H475" t="s">
+      <c r="H475" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="I475" t="s">
-        <v>75</v>
-      </c>
-      <c r="J475" t="s">
+      <c r="I475" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J475" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="K475" t="s">
-        <v>75</v>
-      </c>
-      <c r="L475" t="s">
+      <c r="K475" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L475" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -21184,31 +21184,31 @@
       <c r="C476" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="E476" t="s">
+      <c r="E476" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F476" t="s">
-        <v>11</v>
-      </c>
-      <c r="G476" t="s">
+      <c r="F476" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G476" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H476" t="s">
+      <c r="H476" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I476" t="s">
+      <c r="I476" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J476" t="s">
+      <c r="J476" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="K476" t="s">
-        <v>75</v>
-      </c>
-      <c r="L476" t="s">
+      <c r="K476" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L476" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -21448,31 +21448,31 @@
       <c r="C484" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D484" s="4" t="s">
+      <c r="D484" t="s">
         <v>1063</v>
       </c>
-      <c r="E484" s="4" t="s">
+      <c r="E484" t="s">
         <v>18</v>
       </c>
-      <c r="F484" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G484" s="4" t="s">
+      <c r="F484" t="s">
+        <v>11</v>
+      </c>
+      <c r="G484" t="s">
         <v>1166</v>
       </c>
-      <c r="H484" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I484" s="4" t="s">
+      <c r="H484" t="s">
+        <v>75</v>
+      </c>
+      <c r="I484" t="s">
         <v>74</v>
       </c>
-      <c r="J484" s="4" t="s">
+      <c r="J484" t="s">
         <v>318</v>
       </c>
-      <c r="K484" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L484" s="4" t="s">
+      <c r="K484" t="s">
+        <v>75</v>
+      </c>
+      <c r="L484" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -21481,31 +21481,31 @@
       <c r="C485" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D485" s="4" t="s">
+      <c r="D485" t="s">
         <v>1062</v>
       </c>
-      <c r="E485" s="4" t="s">
+      <c r="E485" t="s">
         <v>18</v>
       </c>
-      <c r="F485" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G485" s="4" t="s">
+      <c r="F485" t="s">
+        <v>11</v>
+      </c>
+      <c r="G485" t="s">
         <v>1166</v>
       </c>
-      <c r="H485" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I485" s="4" t="s">
+      <c r="H485" t="s">
+        <v>75</v>
+      </c>
+      <c r="I485" t="s">
         <v>74</v>
       </c>
-      <c r="J485" s="4" t="s">
+      <c r="J485" t="s">
         <v>297</v>
       </c>
-      <c r="K485" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L485" s="4" t="s">
+      <c r="K485" t="s">
+        <v>75</v>
+      </c>
+      <c r="L485" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="C497" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D497" s="6" t="s">
         <v>830</v>
       </c>
       <c r="E497" t="s">
@@ -21910,7 +21910,7 @@
       <c r="C498" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D498" s="6" t="s">
         <v>832</v>
       </c>
       <c r="E498" t="s">
@@ -22174,7 +22174,7 @@
       <c r="C506" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D506" s="6" t="s">
+      <c r="D506" t="s">
         <v>842</v>
       </c>
       <c r="E506" t="s">
@@ -22207,7 +22207,7 @@
       <c r="C507" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D507" s="6" t="s">
+      <c r="D507" t="s">
         <v>844</v>
       </c>
       <c r="E507" t="s">
@@ -26332,7 +26332,7 @@
       <c r="C632" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D632" t="s">
+      <c r="D632" s="6" t="s">
         <v>1016</v>
       </c>
       <c r="E632" t="s">
@@ -26365,7 +26365,7 @@
       <c r="C633" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D633" t="s">
+      <c r="D633" s="6" t="s">
         <v>1018</v>
       </c>
       <c r="E633" t="s">
@@ -26761,7 +26761,7 @@
       <c r="C645" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D645" s="6" t="s">
+      <c r="D645" t="s">
         <v>1032</v>
       </c>
       <c r="E645" t="s">
@@ -26794,7 +26794,7 @@
       <c r="C646" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D646" s="6" t="s">
+      <c r="D646" t="s">
         <v>1033</v>
       </c>
       <c r="E646" t="s">
